--- a/additional_gre.xlsx
+++ b/additional_gre.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dexter/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dexter/Desktop/gre vocabulary/gre_vocabulary/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-440" yWindow="540" windowWidth="24960" windowHeight="14060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="334">
   <si>
     <t>welter</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -369,7 +369,2853 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>adj.非永久的；短暂的；</t>
+    <t>vestigial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.退化的</t>
+    <rPh sb="4" eb="5">
+      <t>tui hua</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intimation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.暗示</t>
+    <rPh sb="2" eb="3">
+      <t>an shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profligacy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.放肆；肆意挥霍</t>
+    <rPh sb="2" eb="3">
+      <t>fang si</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>si yi hui huo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deficiency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.缺陷</t>
+    <rPh sb="2" eb="3">
+      <t>que xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scruple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.顾忌，迟疑；v.顾忌</t>
+    <rPh sb="2" eb="3">
+      <t>gu ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chi yi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gu ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agoraphobic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n./adj. 患幽闭恐惧症的(人)</t>
+    <rPh sb="8" eb="9">
+      <t>huan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>you bi kong ju</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zheng</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evenhanded</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.公平的，不偏不倚的</t>
+    <rPh sb="4" eb="5">
+      <t>gong ping</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bu pian bu yi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>implausible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.难以置信的</t>
+    <rPh sb="4" eb="5">
+      <t>nan yi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhi xin</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sobriety</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.节制；庄重</t>
+    <rPh sb="2" eb="3">
+      <t>jie zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhuang zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anterior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.较早的，以前的</t>
+    <rPh sb="4" eb="5">
+      <t>jiao zao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yi qian</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refractory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.倔强的，难管理的；(病)难治的</t>
+    <rPh sb="4" eb="5">
+      <t>jue jiang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>nan guan li de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>bing</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>nan zhi</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>irradiate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.照射；照耀，照亮</t>
+    <rPh sb="2" eb="3">
+      <t>zhoa she</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhao yao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhao liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>retentive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.有记性的，记忆力强的</t>
+    <rPh sb="4" eb="5">
+      <t>you</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ji xing</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ji yi li</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>li</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>qiang</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.发泄(感情)，开孔；n.孔，口</t>
+    <rPh sb="2" eb="3">
+      <t>fa xie</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gan qing</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>kai kong</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>kong</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>kou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slavish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.悲屈的；效仿的；无创造性的</t>
+    <rPh sb="4" eb="5">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiao fang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>wu chuang zhoa xing</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>chuang zao xing</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cringe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.畏缩，谄媚</t>
+    <rPh sb="2" eb="3">
+      <t>wei suo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chan mei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self-conscious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.自觉的，害羞的，不自然的</t>
+    <rPh sb="4" eb="5">
+      <t>zi jue de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hai xiu de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>bu zi ran de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thrifty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.节俭的</t>
+    <rPh sb="4" eb="5">
+      <t>jie jian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decrepit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.衰老的，破旧的</t>
+    <rPh sb="4" eb="5">
+      <t>shuai lao de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>po jiu de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.有知觉的，知悉的</t>
+    <rPh sb="4" eb="5">
+      <t>you</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhi jue</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhi xi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actuate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.开动，促使</t>
+    <rPh sb="2" eb="3">
+      <t>kai dong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>cu shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pungent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.辛辣的，刺激的；尖锐的</t>
+    <rPh sb="4" eb="5">
+      <t>xin la de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ci ji de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>jian rui de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pejorative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.轻视的，贬低的</t>
+    <rPh sb="4" eb="5">
+      <t>qing shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bian di</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>censorious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.挑剔的</t>
+    <rPh sb="4" eb="5">
+      <t>tiao ti de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.灵敏的，敏锐的；剧烈的</t>
+    <rPh sb="4" eb="5">
+      <t>ling min</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>min rui de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ju lie de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.戳，刺；刺激，激励</t>
+    <rPh sb="2" eb="3">
+      <t>chuo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ci</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ci ji</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ji li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.无意义的，空洞的；愚蠢的</t>
+    <rPh sb="4" eb="5">
+      <t>wu yi yi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>kong dong de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>yu chun de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inconsequential</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不重要的，微不足道的</t>
+    <rPh sb="4" eb="5">
+      <t>bu zhong yao de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wei bu zu dao de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prosaic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.散文(体)的；单调的，无趣的</t>
+    <rPh sb="4" eb="5">
+      <t>san wen</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ti</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>dan diao de</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>wu qu</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rueful</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.抱撼的；后悔的，悔恨的</t>
+    <rPh sb="4" eb="5">
+      <t>bao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>han</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hou hui</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>hui hen de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inflict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使遭受(痛苦、损伤等)</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zao shou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tong ku</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>sun shang</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>deng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>primitive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.原始的，远古的，基本的</t>
+    <rPh sb="4" eb="5">
+      <t>yuan shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yuan gu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ji ben de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tortuous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.曲折的，拐弯抹角的，弯弯曲曲的</t>
+    <rPh sb="4" eb="5">
+      <t>qu zhe</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>guai wan mo jiao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>wan wan qu qu</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upstage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.高傲的</t>
+    <rPh sb="4" eb="5">
+      <t>gao ao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dissonant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不和谐的，不一致的</t>
+    <rPh sb="4" eb="5">
+      <t>bu he xie</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bu yi zhi de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impugn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.提出异议，对……表示不满</t>
+    <rPh sb="2" eb="3">
+      <t>ti chu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yi yi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>biao shi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>bu man</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stingy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.吝啬的，小气的</t>
+    <rPh sb="4" eb="5">
+      <t>lin se de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiao qi de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sramble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.攀登；搅乱，使混乱，争夺</t>
+    <rPh sb="2" eb="3">
+      <t>pan deng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jiao luan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zheng duo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exacerbate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使加重，使恶化</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jia ju</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>e hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>render</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.呈递，提供；给予，归还</t>
+    <rPh sb="2" eb="3">
+      <t>cheng di</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ti gong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gei yu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>gui huan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>climactic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.高潮的</t>
+    <rPh sb="4" eb="5">
+      <t>gao chao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impudent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.鲁莽的，无礼的</t>
+    <rPh sb="4" eb="5">
+      <t>lu mang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wu li</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使迷惑，搞混</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mi huo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gao hun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleterious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.有害的，有毒的</t>
+    <rPh sb="4" eb="5">
+      <t>you hai de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>you du</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protrude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.突出，伸出</t>
+    <rPh sb="2" eb="3">
+      <t>tu chu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shen chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.(言辞、行为)简略而草率的</t>
+    <rPh sb="5" eb="6">
+      <t>yan ci</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xing wei</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>jian lue</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>er</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>cao shuai</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mordant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.讥讽的，尖酸的</t>
+    <rPh sb="4" eb="5">
+      <t>ji feng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jian suan de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indubitable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不容置疑的</t>
+    <rPh sb="4" eb="5">
+      <t>bu rong zhi yi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tribulation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.苦难，忧患</t>
+    <rPh sb="2" eb="3">
+      <t>ku nan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>you huan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regressive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.退步的，退化的</t>
+    <rPh sb="4" eb="5">
+      <t>tui bu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tui hua</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fastidious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.难取悦的，挑剔的</t>
+    <rPh sb="4" eb="5">
+      <t>nan qu yue</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>tiao ti de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impetuous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.冲动的，鲁莽的</t>
+    <rPh sb="4" eb="5">
+      <t>chong dong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>lu mang de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huddle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.挤成一团；n.一堆人</t>
+    <rPh sb="2" eb="3">
+      <t>ji cheng yi tuan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yi dui ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compendium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.简要，概略</t>
+    <rPh sb="2" eb="3">
+      <t>jian yao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gai lue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>efficacy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.功效，有效性</t>
+    <rPh sb="2" eb="3">
+      <t>gong xiao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>you xiao xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>presumptuous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.放肆的，过分的</t>
+    <rPh sb="4" eb="5">
+      <t>fang si</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>guo fen de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prostrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.俯卧的；沮丧的；v.使下跪鞠躬，使拜服</t>
+    <rPh sb="4" eb="5">
+      <t>fu wo de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ju sang de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>xia gui</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ju gong</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>bai fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seclude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使隔离，使孤立</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ge li</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gu li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ignoble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.卑鄙的</t>
+    <rPh sb="4" eb="5">
+      <t>bei bi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>precarious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.根据不足的，未证实的；不稳固的；危险的</t>
+    <rPh sb="4" eb="5">
+      <t>gen ju</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bu zu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zheng shi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>bu wen gu</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>de</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>wei xian de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indenture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.契约，合同；v.以契约约束</t>
+    <rPh sb="2" eb="3">
+      <t>qi yue</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>he tong</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>qi yue</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>yue shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flickering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.闪烁的，摇曳的，忽隐忽现的</t>
+    <rPh sb="4" eb="5">
+      <t>shan shuo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yao ye</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>hu yin hu xian</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prudish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.过分守礼的，假道学的</t>
+    <rPh sb="4" eb="5">
+      <t>guo fen</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shou li</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>dao xue</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tactile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.有触觉的</t>
+    <rPh sb="4" eb="5">
+      <t>you</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chu jue</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>domineer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.压制</t>
+    <rPh sb="2" eb="3">
+      <t>ya zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>terse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.简洁的，简明的</t>
+    <rPh sb="4" eb="5">
+      <t>jian jie</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jian ming de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reclaim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.纠正，改造；开垦(土地)</t>
+    <rPh sb="2" eb="3">
+      <t>jiu zheng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gai zao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>kai ken</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>tu di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timorous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.胆小的，胆怯的</t>
+    <rPh sb="4" eb="5">
+      <t>dan xiao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dan qie</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>florid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.华丽的；(脸)红润的</t>
+    <rPh sb="4" eb="5">
+      <t>hua li de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>lian</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>hong run</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>caustic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.腐蚀性的；刻薄的；n.腐蚀剂</t>
+    <rPh sb="4" eb="5">
+      <t>fu shi xing</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ke bo</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>fu shi ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unwitting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.无意的，不知不觉的</t>
+    <rPh sb="4" eb="5">
+      <t>wu yi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bu zhi bu jue</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bland</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.(人)情绪平稳的；(食物)无味的</t>
+    <rPh sb="5" eb="6">
+      <t>ren</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>qing xu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ping wen</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shi wu</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>wu wei</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perception</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.感知，知觉；洞察力</t>
+    <rPh sb="2" eb="3">
+      <t>gan zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhi jue</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dong cha li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>morose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.郁闷的</t>
+    <rPh sb="4" eb="5">
+      <t>yu men</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thrive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.茁壮成长；繁荣，兴旺</t>
+    <rPh sb="2" eb="3">
+      <t>zhuo zhaung</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cheng zhang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fan rong</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xing wang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strenuous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.奋发的；热烈的</t>
+    <rPh sb="4" eb="5">
+      <t>fen fa</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>re lie</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prescient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.有先见的，预知的</t>
+    <rPh sb="4" eb="5">
+      <t>you</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xian jian de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yu zhi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perfidious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不忠的，背信弃义的</t>
+    <rPh sb="4" eb="5">
+      <t>bu zhong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bei xin qi yi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eviscerate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.取出内脏</t>
+    <rPh sb="2" eb="3">
+      <t>qu chu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>nei zang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fortuitous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.偶然发生的，偶然的</t>
+    <rPh sb="4" eb="5">
+      <t>ou ran</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fa sheng de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ou ran de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>charlatan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.江湖郎中，骗子</t>
+    <rPh sb="2" eb="3">
+      <t>jiang hu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>lang zhong</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>pian zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>negligibly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adv.无足轻重地，不值一提地</t>
+    <rPh sb="4" eb="5">
+      <t>wu zu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qing zhong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>di</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bu zhi yi ti</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shatter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>euphoric</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.欢欣的</t>
+    <rPh sb="4" eb="5">
+      <t>huan xin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>premonition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.预感，预兆</t>
+    <rPh sb="2" eb="3">
+      <t>yu gan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yu zhao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impervious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不能渗透的；不为所动的</t>
+    <rPh sb="4" eb="5">
+      <t>bu neng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shen tou</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bu wei suo dong</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>averse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.反对的，不愿意的</t>
+    <rPh sb="4" eb="5">
+      <t>fan dui de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bu yuan yi de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flourish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.繁荣，兴旺；活跃而有影响力</t>
+    <rPh sb="2" eb="3">
+      <t>fan rong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xing wang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>huo yue</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>er</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>you</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ying xiang li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thousandfold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj./adv.千倍的(地)</t>
+    <rPh sb="9" eb="10">
+      <t>qian bei</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tantamount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.同等的，相当于</t>
+    <rPh sb="4" eb="5">
+      <t>tong deng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiang dang yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atrophy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.萎缩，衰退</t>
+    <rPh sb="2" eb="3">
+      <t>wei suo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shuai tui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mundane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.现世的，世俗的</t>
+    <rPh sb="4" eb="5">
+      <t>xian shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi su</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>despondent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.失望的，意气消沉的</t>
+    <rPh sb="4" eb="5">
+      <t>shi wang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yi qi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xiao chen</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>garish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.俗丽的，过于艳丽的</t>
+    <rPh sb="4" eb="5">
+      <t>su</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>li</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>guo yu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yan li</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hamper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.妨碍，阻挠；n.(有盖的)大篮子</t>
+    <rPh sb="2" eb="3">
+      <t>fang ai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zu nao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>you gai</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>da lan zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使回复，恢复，修复，修补</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hui fu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>hui fu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xiu fu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xiu bu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>penetrating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>generic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.种类的，类属的</t>
+    <rPh sb="4" eb="5">
+      <t>zhong lei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>lei shu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fraught</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.充满的</t>
+    <rPh sb="4" eb="5">
+      <t>chong man de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amalgam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.混合物</t>
+    <rPh sb="2" eb="3">
+      <t>hun he wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>affable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.和蔼的；友善的</t>
+    <rPh sb="4" eb="5">
+      <t>he ai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>you shan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decorous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.合宜的，高雅的</t>
+    <rPh sb="4" eb="5">
+      <t>he yi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gao ya</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serrated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.锯齿状的</t>
+    <rPh sb="4" eb="5">
+      <t>ju chi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhuang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fallible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.易犯错的</t>
+    <rPh sb="4" eb="5">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fan cuo</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.弯曲，变歪；n.弯曲，歪斜</t>
+    <rPh sb="2" eb="3">
+      <t>wan qu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wan qu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>wai xie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gratuitous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.无缘无故的；免费的</t>
+    <rPh sb="4" eb="5">
+      <t>wu yuan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wu gu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>mian fei</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imperious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.傲慢的，专横的</t>
+    <rPh sb="4" eb="5">
+      <t>ao man</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhuan heng</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>derogatory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不敬的，贬损的</t>
+    <rPh sb="4" eb="5">
+      <t>bu jing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bian sun</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trenchant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.犀利的，尖锐的</t>
+    <rPh sb="4" eb="5">
+      <t>xi li</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jian rui</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prominence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.突出物；突出，显著</t>
+    <rPh sb="2" eb="3">
+      <t>tu chu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tu chu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xian zhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overcast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.阴天的，阴暗的</t>
+    <rPh sb="4" eb="5">
+      <t>yin tian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yin an</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bashfulness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.羞怯</t>
+    <rPh sb="2" eb="3">
+      <t>xiu qie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soporific</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.催眠的；n.安眠药</t>
+    <rPh sb="4" eb="5">
+      <t>cui mian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>an mian yao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.传授，赋予；传递；告知；透露</t>
+    <rPh sb="2" eb="3">
+      <t>chuan shou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fu yu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chuan di</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>gao zhi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>tou lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>antipathy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.反感，厌恶</t>
+    <rPh sb="2" eb="3">
+      <t>fan gan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yan wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.膨胀的；扩张的</t>
+    <rPh sb="4" eb="5">
+      <t>peng zhang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>kuo zhang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>septic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.腐败的；脓毒性的</t>
+    <rPh sb="4" eb="5">
+      <t>fu bai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scavenge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.清除；从废物中提取有用物质</t>
+    <rPh sb="2" eb="3">
+      <t>qing chu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>cong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fei wu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ti qu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>you yong</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>wu zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tardy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.迟延，迟到的；缓慢的；迟钝的</t>
+    <rPh sb="4" eb="5">
+      <t>chi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>chi dao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>huan man</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>chi dun de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perfunctory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.例行公事般的，敷衍的</t>
+    <rPh sb="4" eb="5">
+      <t>li xing gong shi ban</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>fu yan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paltry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.无价值的，微不足道的</t>
+    <rPh sb="4" eb="5">
+      <t>wu jia zhi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wei bu zu dao</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elicit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.得出，引出</t>
+    <rPh sb="2" eb="3">
+      <t>de chu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yin chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forlorn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.孤独的；凄凉的</t>
+    <rPh sb="4" eb="5">
+      <t>gu du</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qi liang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.无生产力的；虚弱的</t>
+    <rPh sb="4" eb="5">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>sheng chan li</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xu ruo</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feckless</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.无效的，效率低的；不负责任的</t>
+    <rPh sb="4" eb="5">
+      <t>wu xi o a</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xiao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiao lü</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>di</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>bu fu ze ren</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self-righteousness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.自以为是</t>
+    <rPh sb="2" eb="3">
+      <t>zi yi wei shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evince</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.表明，表示</t>
+    <rPh sb="2" eb="3">
+      <t>biao ming</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>biao shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.充满的，供应充足的</t>
+    <rPh sb="4" eb="5">
+      <t>chong man</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gong ying</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>chong zu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bulky</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.庞大的；笨重的</t>
+    <rPh sb="4" eb="5">
+      <t>pang da</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ben zhong</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controversy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.公开辩论，论战</t>
+    <rPh sb="2" eb="3">
+      <t>gong kai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bian lun</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>lun zhan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hatch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.船舱盖；v.孵化，策划</t>
+    <rPh sb="2" eb="3">
+      <t>chuan cang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fu hua</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ce hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rustic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.乡土的，乡土气的</t>
+    <rPh sb="4" eb="5">
+      <t>xiang tu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiang tu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>qi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>castigate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.惩治，严责</t>
+    <rPh sb="2" eb="3">
+      <t>cheng zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yan ze</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arduous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.费力的，艰难的</t>
+    <rPh sb="4" eb="5">
+      <t>fei li</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jian nan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>untimely</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.过早的；不合时宜的</t>
+    <rPh sb="4" eb="5">
+      <t>guo zao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bu he shi yi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.限制；依法没收 ，扣押</t>
+    <rPh sb="2" eb="3">
+      <t>xian zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yi fa</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>mo shou</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>kou ya</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iridescent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.色彩斑斓的</t>
+    <rPh sb="4" eb="5">
+      <t>se cai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ban lan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plaintive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.哀伤的，悲伤的</t>
+    <rPh sb="4" eb="5">
+      <t>ai shang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bei sahng</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>penitent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.悔过的，忏悔的</t>
+    <rPh sb="4" eb="5">
+      <t>hui guo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chan hui</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uncommitted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不受约束的，不承担责任的</t>
+    <rPh sb="4" eb="5">
+      <t>bu shou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yue shu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bu cheng dan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ze ren</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depreciate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.轻视；贬值</t>
+    <rPh sb="2" eb="3">
+      <t>qing shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bian zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sluggish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.缓慢的，行动迟缓的；反应慢的</t>
+    <rPh sb="4" eb="5">
+      <t>huan man</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xing dong</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>chi huan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>fan ying man</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>retract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.撤回，取消；缩回，拉回</t>
+    <rPh sb="2" eb="3">
+      <t>che hui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qu xiao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>suo hui</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>la hui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choppy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.波浪起伏的；(风)不断改变方向的</t>
+    <rPh sb="4" eb="5">
+      <t>bo lang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qi fu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>feng</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>bu duan</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>gai bian</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>fang xiang</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incarnate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.具有人体的；化身的，拟人的</t>
+    <rPh sb="4" eb="5">
+      <t>ju you</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ren ti</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>hua shen</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ni ren</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>surly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.脾气暴躁的；阴沉的</t>
+    <rPh sb="4" eb="5">
+      <t>pi qi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bao zao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yin chen</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使落下，使散开；砸碎，粉碎；破坏，毁坏</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>luo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xia</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>san kai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.非永久的；短暂的；脱落的；落叶的</t>
     <rPh sb="4" eb="5">
       <t>fei</t>
     </rPh>
@@ -388,245 +3234,56 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>脱落的；落叶的</t>
-    <rPh sb="4" eb="5">
-      <t>luo ye</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vestigial</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adj.退化的</t>
-    <rPh sb="4" eb="5">
-      <t>tui hua</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>intimation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n.暗示</t>
-    <rPh sb="2" eb="3">
-      <t>an shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>profligacy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n.放肆；肆意挥霍</t>
-    <rPh sb="2" eb="3">
-      <t>fang si</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>si yi hui huo</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deficiency</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n.缺陷</t>
-    <rPh sb="2" eb="3">
-      <t>que xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>scruple</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n.顾忌，迟疑；v.顾忌</t>
-    <rPh sb="2" eb="3">
-      <t>gu ji</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>chi yi</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>gu ji</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>agoraphobic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n./adj. 患幽闭恐惧症的(人)</t>
-    <rPh sb="8" eb="9">
-      <t>huan</t>
+    <t>adj.不健康的，不健全的；不结实的，不坚固的；无根据的</t>
+    <rPh sb="4" eb="5">
+      <t>bu jian kang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
     </rPh>
     <rPh sb="9" eb="10">
-      <t>you bi kong ju</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>zheng</t>
+      <t>bu jian quan de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.污秽的，肮脏的；恶臭的；邪恶的 v. (体育等)犯规</t>
+    <rPh sb="4" eb="5">
+      <t>wu hui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ang zang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>e chou</t>
     </rPh>
     <rPh sb="14" eb="15">
       <t>de</t>
     </rPh>
     <rPh sb="16" eb="17">
-      <t>ren</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>evenhanded</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adj.公平的，不偏不倚的</t>
-    <rPh sb="4" eb="5">
-      <t>gong ping</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>de</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>bu pian bu yi</t>
+      <t>xie e</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.(声音)洪亮的，尖锐的；(气味)刺激的；(思想)敏锐的，有洞察力的</t>
+    <rPh sb="5" eb="6">
+      <t>sheng yin</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hong liang de</t>
     </rPh>
     <rPh sb="12" eb="13">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>implausible</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adj.难以置信的</t>
-    <rPh sb="4" eb="5">
-      <t>nan yi</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>zhi xin</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sobriety</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n.节制；庄重</t>
-    <rPh sb="2" eb="3">
-      <t>jie zhi</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>zhuang zhong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>anterior</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adj.较早的，以前的</t>
-    <rPh sb="4" eb="5">
-      <t>jiao zao</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>de</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>yi qian</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>refractory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adj.倔强的，难管理的；(病)难治的</t>
-    <rPh sb="4" eb="5">
-      <t>jue jiang</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>de</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>nan guan li de</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>bing</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>nan zhi</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>irradiate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v.照射；照耀，照亮</t>
-    <rPh sb="2" eb="3">
-      <t>zhoa she</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>zhao yao</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>zhao liang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>retentive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adj.有记性的，记忆力强的</t>
-    <rPh sb="4" eb="5">
-      <t>you</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ji xing</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>de</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ji yi li</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>li</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>qiang</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>de</t>
+      <t>jian rui de</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -961,10 +3618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:C168"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="136" zoomScaleNormal="136" zoomScalePageLayoutView="136" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -975,51 +3632,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>237</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>235</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1032,211 +3689,1295 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>265</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>303</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>218</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>259</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>181</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>293</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>301</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>199</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20"/>
+      <c r="A20" t="s">
+        <v>323</v>
+      </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>295</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>330</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>239</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>317</v>
+      </c>
+      <c r="B33" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>251</v>
+      </c>
+      <c r="B34" t="s">
+        <v>252</v>
+      </c>
+      <c r="C34"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>222</v>
+      </c>
+      <c r="B35" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>267</v>
+      </c>
+      <c r="B38" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>167</v>
+      </c>
+      <c r="B40" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>283</v>
+      </c>
+      <c r="B41" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>279</v>
+      </c>
+      <c r="B43" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>204</v>
+      </c>
+      <c r="B45" t="s">
+        <v>205</v>
+      </c>
+      <c r="C45"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>289</v>
+      </c>
+      <c r="B47" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>195</v>
+      </c>
+      <c r="B48" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>243</v>
+      </c>
+      <c r="B50" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>137</v>
+      </c>
+      <c r="B51" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>285</v>
+      </c>
+      <c r="B52" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>160</v>
+      </c>
+      <c r="B53" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>175</v>
+      </c>
+      <c r="B54" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>212</v>
+      </c>
+      <c r="B55" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>281</v>
+      </c>
+      <c r="B56" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>197</v>
+      </c>
+      <c r="B57" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>166</v>
+      </c>
+      <c r="B58" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>233</v>
+      </c>
+      <c r="B59" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>224</v>
+      </c>
+      <c r="B61" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>231</v>
+      </c>
+      <c r="B63" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>247</v>
+      </c>
+      <c r="B64" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>226</v>
+      </c>
+      <c r="B65" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>297</v>
+      </c>
+      <c r="B66" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>141</v>
+      </c>
+      <c r="B67" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>153</v>
+      </c>
+      <c r="B68" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>263</v>
+      </c>
+      <c r="B69" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>249</v>
+      </c>
+      <c r="B70" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>208</v>
+      </c>
+      <c r="B71" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>139</v>
+      </c>
+      <c r="B72" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>51</v>
+      </c>
+      <c r="B73" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>307</v>
+      </c>
+      <c r="B74" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>119</v>
+      </c>
+      <c r="B75" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>107</v>
+      </c>
+      <c r="B76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>89</v>
+      </c>
+      <c r="B77" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>325</v>
+      </c>
+      <c r="B78" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>91</v>
+      </c>
+      <c r="B79" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>157</v>
+      </c>
+      <c r="B80" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>131</v>
+      </c>
+      <c r="B81" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>97</v>
+      </c>
+      <c r="B82" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>22</v>
+      </c>
+      <c r="B83" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>39</v>
+      </c>
+      <c r="B84" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>309</v>
+      </c>
+      <c r="B85" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>59</v>
+      </c>
+      <c r="B86" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>129</v>
+      </c>
+      <c r="B87" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>185</v>
+      </c>
+      <c r="B88" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>220</v>
+      </c>
+      <c r="B89" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>201</v>
+      </c>
+      <c r="B90" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>257</v>
+      </c>
+      <c r="B91" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>24</v>
+      </c>
+      <c r="B92" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>277</v>
+      </c>
+      <c r="B93" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>81</v>
+      </c>
+      <c r="B94" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>230</v>
+      </c>
+      <c r="B95" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>313</v>
+      </c>
+      <c r="B96" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>183</v>
+      </c>
+      <c r="B97" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>193</v>
+      </c>
+      <c r="B98" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>275</v>
+      </c>
+      <c r="B99" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>311</v>
+      </c>
+      <c r="B100" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101"/>
+      <c r="B101"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>155</v>
+      </c>
+      <c r="B102" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>206</v>
+      </c>
+      <c r="B103" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>191</v>
+      </c>
+      <c r="B104" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>147</v>
+      </c>
+      <c r="B105" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>99</v>
+      </c>
+      <c r="B106" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>87</v>
+      </c>
+      <c r="B107" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>41</v>
+      </c>
+      <c r="B108" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>255</v>
+      </c>
+      <c r="B109" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>93</v>
+      </c>
+      <c r="B110" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>149</v>
+      </c>
+      <c r="B111" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>125</v>
+      </c>
+      <c r="B112" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>162</v>
+      </c>
+      <c r="B113" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>79</v>
+      </c>
+      <c r="B114" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>16</v>
+      </c>
+      <c r="B115" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>171</v>
+      </c>
+      <c r="B116" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>57</v>
+      </c>
+      <c r="B117" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>135</v>
+      </c>
+      <c r="B118" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>115</v>
+      </c>
+      <c r="B119" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>28</v>
+      </c>
+      <c r="B120" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>291</v>
+      </c>
+      <c r="B121" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>228</v>
+      </c>
+      <c r="B122" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
         <v>61</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B123" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>321</v>
+      </c>
+      <c r="B124" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>95</v>
+      </c>
+      <c r="B125" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>299</v>
+      </c>
+      <c r="B126" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>271</v>
+      </c>
+      <c r="B127" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>45</v>
+      </c>
+      <c r="B128" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>151</v>
+      </c>
+      <c r="B129" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>69</v>
+      </c>
+      <c r="B130" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>287</v>
+      </c>
+      <c r="B131" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>75</v>
+      </c>
+      <c r="B132" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>269</v>
+      </c>
+      <c r="B133" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>241</v>
+      </c>
+      <c r="B134" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>203</v>
+      </c>
+      <c r="B135" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>65</v>
+      </c>
+      <c r="B136" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>319</v>
+      </c>
+      <c r="B137" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>53</v>
+      </c>
+      <c r="B138" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>261</v>
+      </c>
+      <c r="B139" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>111</v>
+      </c>
+      <c r="B140" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>34</v>
+      </c>
+      <c r="B141" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>109</v>
+      </c>
+      <c r="B142" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>26</v>
+      </c>
+      <c r="B143" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>189</v>
+      </c>
+      <c r="B144" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>327</v>
+      </c>
+      <c r="B145" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>164</v>
+      </c>
+      <c r="B146" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>216</v>
+      </c>
+      <c r="B147" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>273</v>
+      </c>
+      <c r="B148" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>169</v>
+      </c>
+      <c r="B149" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>30</v>
+      </c>
+      <c r="B150" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>214</v>
+      </c>
+      <c r="B151" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>71</v>
+      </c>
+      <c r="B152" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>187</v>
+      </c>
+      <c r="B153" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>173</v>
+      </c>
+      <c r="B154" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>101</v>
+      </c>
+      <c r="B155" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>253</v>
+      </c>
+      <c r="B156" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>133</v>
+      </c>
+      <c r="B157" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>20</v>
+      </c>
+      <c r="B158" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>315</v>
+      </c>
+      <c r="B159" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>305</v>
+      </c>
+      <c r="B161" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>179</v>
+      </c>
+      <c r="B162" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>103</v>
+      </c>
+      <c r="B163" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
         <v>63</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B164" t="s">
         <v>64</v>
       </c>
     </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>37</v>
+      </c>
+      <c r="B165" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>245</v>
+      </c>
+      <c r="B166" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>6</v>
+      </c>
+      <c r="B168" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A1:B167">
+    <sortCondition ref="A167"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
